--- a/testone/abc.xlsx
+++ b/testone/abc.xlsx
@@ -14,48 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
-  <si>
-    <t>wenjian</t>
-  </si>
-  <si>
-    <t>leibie</t>
-  </si>
-  <si>
-    <t>liaohao</t>
-  </si>
-  <si>
-    <t>kehu</t>
-  </si>
-  <si>
-    <t>guigeshu</t>
-  </si>
-  <si>
-    <t>riqi</t>
-  </si>
-  <si>
-    <t>bianxie</t>
-  </si>
-  <si>
-    <t>lei</t>
-  </si>
-  <si>
-    <t>fz</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>pindian</t>
-  </si>
-  <si>
-    <t>pincha</t>
-  </si>
-  <si>
-    <t>wendu</t>
-  </si>
-  <si>
-    <t>fuzai</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+  <si>
+    <t>源文件</t>
+  </si>
+  <si>
+    <t>英文类</t>
+  </si>
+  <si>
+    <t>料号</t>
+  </si>
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t>规格书</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>编写</t>
+  </si>
+  <si>
+    <t>中文类</t>
+  </si>
+  <si>
+    <t>封装</t>
+  </si>
+  <si>
+    <t>产品代号</t>
+  </si>
+  <si>
+    <t>频点</t>
+  </si>
+  <si>
+    <t>频差</t>
+  </si>
+  <si>
+    <t>温度</t>
+  </si>
+  <si>
+    <t>负载</t>
+  </si>
+  <si>
+    <t>NEW_NAME</t>
   </si>
   <si>
     <t>SHC-0122 曙光信息（HC-32.768K-12.5-20-4085-70K）.pdf</t>
@@ -82,48 +85,48 @@
     <t>Quartz Crystal  (Tuning Fork)</t>
   </si>
   <si>
+    <t>Ceramic Surface Mount Oscillator</t>
+  </si>
+  <si>
+    <t>Quartz crystal  石英晶体谐振器</t>
+  </si>
+  <si>
+    <t>Quartz Crystal  石英晶体谐振器</t>
+  </si>
+  <si>
+    <t>HC-32.768K-12.5-20-4085-70K</t>
+  </si>
+  <si>
+    <t>L-3-5-66.000M-50-4085</t>
+  </si>
+  <si>
+    <t>S-F-20.000M-20-3030-4085-50</t>
+  </si>
+  <si>
+    <t>L-3-5-50.000M-50-4085</t>
+  </si>
+  <si>
+    <t>K-F-20.000M-20-3030-4085-50</t>
+  </si>
+  <si>
+    <t>曙光信息</t>
+  </si>
+  <si>
+    <t>北京瑞斯康达</t>
+  </si>
+  <si>
+    <t>曙光</t>
+  </si>
+  <si>
+    <t>SHC-0122</t>
+  </si>
+  <si>
+    <t>SL-1250</t>
+  </si>
+  <si>
     <t>()</t>
   </si>
   <si>
-    <t>Ceramic Surface Mount Oscillator</t>
-  </si>
-  <si>
-    <t>Quartz crystal  石英晶体谐振器</t>
-  </si>
-  <si>
-    <t>Quartz Crystal  石英晶体谐振器</t>
-  </si>
-  <si>
-    <t>HC-32.768K-12.5-20-4085-70K</t>
-  </si>
-  <si>
-    <t>L-3-5-66.000M-50-4085</t>
-  </si>
-  <si>
-    <t>S-F-20.000M-20-3030-4085-50</t>
-  </si>
-  <si>
-    <t>L-3-5-50.000M-50-4085</t>
-  </si>
-  <si>
-    <t>K-F-20.000M-20-3030-4085-50</t>
-  </si>
-  <si>
-    <t>曙光信息</t>
-  </si>
-  <si>
-    <t>北京瑞斯康达</t>
-  </si>
-  <si>
-    <t>曙光</t>
-  </si>
-  <si>
-    <t>SHC-0122</t>
-  </si>
-  <si>
-    <t>SL-1250</t>
-  </si>
-  <si>
     <t>SL-1249</t>
   </si>
   <si>
@@ -200,6 +203,24 @@
   </si>
   <si>
     <t>12.5</t>
+  </si>
+  <si>
+    <t>曙光信息 HC-32.768K-12.5-20-4085-70K SHC-0122 2019-8-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>北京瑞斯康达 L-3-5-66.000M-50-4085 SL-1250 2019-6-25</t>
+  </si>
+  <si>
+    <t>曙光 S-F-20.000M-20-3030-4085-50 () ()</t>
+  </si>
+  <si>
+    <t>北京瑞斯康达 L-3-5-50.000M-50-4085 SL-1249 2019-6-25</t>
+  </si>
+  <si>
+    <t>曙光 K-F-20.000M-20-3030-4085-50 SK-2826 2019-9-12</t>
   </si>
 </sst>
 </file>
@@ -557,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,16 +627,19 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -627,65 +651,53 @@
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -700,36 +712,39 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="P4" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -741,42 +756,45 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="P5" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -788,39 +806,42 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="P6" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -832,42 +853,45 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="P7" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -879,31 +903,34 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="P8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
